--- a/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,167 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1847000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4738000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1620000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1418000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1062000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1091000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1318000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1379000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1463000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4109000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1389000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1319000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>844000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>957000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1135000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1557000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>629000</v>
+      </c>
+      <c r="F10" s="3">
         <v>231000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>99000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>218000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>134000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>183000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-178000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,16 +837,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>348000</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1760000</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
+        <v>4885000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1620000</v>
+        <v>87000</v>
       </c>
       <c r="E18" s="3">
-        <v>1418000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1062000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1091000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1318000</v>
-      </c>
-      <c r="I18" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>1379000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,54 +1074,62 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1620000</v>
+        <v>-18000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1418000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1062000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1091000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1318000</v>
-      </c>
-      <c r="I20" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1379000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2522500</v>
+      <c r="D21" s="3">
+        <v>592800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>850200</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>1284600</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1067,8 +1140,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1175,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>69000</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
+        <v>-245000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-56000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
+        <v>-297000</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
+        <v>-297000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1490,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1620000</v>
+        <v>18000</v>
       </c>
       <c r="E32" s="3">
-        <v>1418000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1062000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1091000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1318000</v>
-      </c>
-      <c r="I32" s="3">
+        <v>98000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>1379000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
+        <v>-297000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
+        <v>-297000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,20 +1704,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2939000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1019000</v>
+      </c>
+      <c r="F41" s="3">
         <v>804700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,20 +1735,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
         <v>22200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,20 +1770,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1175900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,20 +1805,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1078000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1005300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,8 +1840,14 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,20 +1875,26 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5291000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3156000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3008200</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,20 +1910,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>206800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1736,20 +1945,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8713000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8466000</v>
+      </c>
+      <c r="F48" s="3">
         <v>8290500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,20 +1980,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3">
         <v>471100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +2085,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1024000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="F52" s="3">
         <v>420000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,20 +2155,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15028000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12647000</v>
+      </c>
+      <c r="F54" s="3">
         <v>12396500</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,20 +2224,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
         <v>798800</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,20 +2255,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>466000</v>
+      </c>
+      <c r="F58" s="3">
         <v>478600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,20 +2290,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2866000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1958000</v>
+      </c>
+      <c r="F59" s="3">
         <v>868800</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,20 +2325,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3163000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2424000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2146200</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,20 +2360,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1716000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2075000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2167300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2110,20 +2395,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2116000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1150600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,20 +2535,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6995000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6145000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5526100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,20 +2725,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15518000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,20 +2865,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8033000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6502000</v>
+      </c>
+      <c r="F76" s="3">
         <v>6870400</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
+        <v>-297000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,26 +3029,28 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="D83" s="3">
+        <v>523800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1095200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>2522500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +3060,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,26 +3235,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="D89" s="3">
+        <v>1147900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1691100</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>1005900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +3270,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,26 +3289,28 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="D91" s="3">
+        <v>-717100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1048900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-449300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2879,8 +3320,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,26 +3390,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="D94" s="3">
+        <v>-625700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-824300</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-366200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3425,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,26 +3580,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="D100" s="3">
+        <v>1399300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-749300</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>-732700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3124,26 +3615,32 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>3800</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3153,26 +3650,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="D102" s="3">
+        <v>1920400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>110600</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>-89200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,6 +3683,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,181 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1847000</v>
+        <v>1940000</v>
       </c>
       <c r="E8" s="3">
-        <v>4738000</v>
+        <v>1846900</v>
       </c>
       <c r="F8" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="G8" s="3">
         <v>1620000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1418000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1062000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1091000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1318000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1379000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1463000</v>
+        <v>1471000</v>
       </c>
       <c r="E9" s="3">
-        <v>4109000</v>
+        <v>1463600</v>
       </c>
       <c r="F9" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1389000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1319000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>844000</v>
       </c>
-      <c r="I9" s="3">
-        <v>957000</v>
-      </c>
       <c r="J9" s="3">
+        <v>1225000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1135000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1557000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>384000</v>
+        <v>469000</v>
       </c>
       <c r="E10" s="3">
-        <v>629000</v>
+        <v>383300</v>
       </c>
       <c r="F10" s="3">
+        <v>300000</v>
+      </c>
+      <c r="G10" s="3">
         <v>231000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>99000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>218000</v>
       </c>
-      <c r="I10" s="3">
-        <v>134000</v>
-      </c>
       <c r="J10" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="K10" s="3">
         <v>183000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-178000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,19 +853,20 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>130000</v>
+        <v>128000</v>
       </c>
       <c r="E12" s="3">
-        <v>348000</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>129500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>114000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -862,8 +877,8 @@
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3">
+        <v>117000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -874,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,19 +1018,20 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1760000</v>
+        <v>1715000</v>
       </c>
       <c r="E17" s="3">
-        <v>4885000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>1760800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1648000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -1014,11 +1042,11 @@
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
+      <c r="J17" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1026,19 +1054,22 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>87000</v>
+        <v>225000</v>
       </c>
       <c r="E18" s="3">
-        <v>-147000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>86100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>52000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1049,20 +1080,23 @@
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J18" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>1379000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,10 +1120,10 @@
         <v>-18000</v>
       </c>
       <c r="E20" s="3">
-        <v>-98000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>-18100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-25000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1099,31 +1134,34 @@
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1379000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>592800</v>
+        <v>615000</v>
       </c>
       <c r="E21" s="3">
-        <v>850200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>1271900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-342700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1134,8 +1172,8 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>1547600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,19 +1222,22 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>69000</v>
+        <v>207000</v>
       </c>
       <c r="E23" s="3">
-        <v>-245000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>68100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>27000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,11 +1248,11 @@
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
+      <c r="J23" s="3">
+        <v>-349000</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1216,43 +1260,49 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="E24" s="3">
-        <v>52000</v>
+        <v>25800</v>
       </c>
       <c r="F24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-56000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,19 +1336,22 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>43000</v>
+        <v>178000</v>
       </c>
       <c r="E26" s="3">
-        <v>-297000</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>42300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1309,11 +1362,11 @@
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
+      <c r="J26" s="3">
+        <v>-293000</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1321,19 +1374,22 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43000</v>
+        <v>178000</v>
       </c>
       <c r="E27" s="3">
-        <v>-297000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>44100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1344,11 +1400,11 @@
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
+      <c r="J27" s="3">
+        <v>-293000</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1356,8 +1412,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1505,10 +1576,10 @@
         <v>18000</v>
       </c>
       <c r="E32" s="3">
-        <v>98000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>18100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>25000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1519,31 +1590,34 @@
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="J32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>1379000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43000</v>
+        <v>178000</v>
       </c>
       <c r="E33" s="3">
-        <v>-297000</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>44100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1554,11 +1628,11 @@
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
+      <c r="J33" s="3">
+        <v>-293000</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -1566,8 +1640,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,19 +1678,22 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43000</v>
+        <v>178000</v>
       </c>
       <c r="E35" s="3">
-        <v>-297000</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>44100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1624,11 +1704,11 @@
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
+      <c r="J35" s="3">
+        <v>-293000</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -1636,48 +1716,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,23 +1793,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2939000</v>
+        <v>3264000</v>
       </c>
       <c r="E41" s="3">
+        <v>2939200</v>
+      </c>
+      <c r="F41" s="3">
         <v>1019000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>804700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,23 +1829,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
         <v>22200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,23 +1867,26 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1231000</v>
+        <v>1210000</v>
       </c>
       <c r="E43" s="3">
+        <v>1207700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1059000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1175900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,23 +1905,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1121000</v>
+        <v>1185000</v>
       </c>
       <c r="E44" s="3">
+        <v>1121300</v>
+      </c>
+      <c r="F44" s="3">
         <v>1078000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1005300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1846,8 +1943,11 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1881,23 +1981,26 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5291000</v>
+        <v>5659000</v>
       </c>
       <c r="E46" s="3">
+        <v>5291300</v>
+      </c>
+      <c r="F46" s="3">
         <v>3156000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3008200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,23 +2019,26 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="3">
+        <v>293800</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>206800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,23 +2057,26 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9173000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8713000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8466000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8290500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,23 +2095,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="3">
+        <v>376700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
         <v>471100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,23 +2209,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1024000</v>
+        <v>1070000</v>
       </c>
       <c r="E52" s="3">
+        <v>352800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1025000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>420000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,23 +2285,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15028000</v>
+        <v>15902000</v>
       </c>
       <c r="E54" s="3">
+        <v>15027600</v>
+      </c>
+      <c r="F54" s="3">
         <v>12647000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12396500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,23 +2357,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57" s="3">
+        <v>551100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
         <v>798800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,23 +2393,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>297000</v>
+        <v>281000</v>
       </c>
       <c r="E58" s="3">
+        <v>432200</v>
+      </c>
+      <c r="F58" s="3">
         <v>466000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>478600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,23 +2431,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2866000</v>
+        <v>3039000</v>
       </c>
       <c r="E59" s="3">
+        <v>2179500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1958000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>868800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,23 +2469,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3163000</v>
+        <v>3320000</v>
       </c>
       <c r="E60" s="3">
+        <v>3162900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2424000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2146200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,23 +2507,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1716000</v>
+        <v>1830000</v>
       </c>
       <c r="E61" s="3">
+        <v>2006400</v>
+      </c>
+      <c r="F61" s="3">
         <v>2075000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2167300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2401,23 +2545,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2116000</v>
+        <v>2413000</v>
       </c>
       <c r="E62" s="3">
+        <v>1825200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1646000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1150600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,23 +2697,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6995000</v>
+        <v>7563000</v>
       </c>
       <c r="E66" s="3">
+        <v>7052100</v>
+      </c>
+      <c r="F66" s="3">
         <v>6145000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5526100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,23 +2903,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="E72" s="3">
+        <v>-15468800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>-15518000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,23 +3055,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8033000</v>
+        <v>8339000</v>
       </c>
       <c r="E76" s="3">
+        <v>7975500</v>
+      </c>
+      <c r="F76" s="3">
         <v>6502000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6870400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,59 +3131,65 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43000</v>
+        <v>178000</v>
       </c>
       <c r="E81" s="3">
-        <v>-297000</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>44100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -3004,11 +3200,11 @@
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
+      <c r="J81" s="3">
+        <v>-293000</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -3016,8 +3212,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,16 +3230,17 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>523800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1095200</v>
+        <v>408000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -3048,14 +3248,14 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>2522500</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>1896600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3066,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,31 +3456,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>845000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1147900</v>
       </c>
-      <c r="E89" s="3">
-        <v>1691100</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>1109000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
-        <v>1005900</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>806100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3276,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,31 +3512,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-717100</v>
+        <v>-643000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1048900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-612600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-392000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>-449300</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-309800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3326,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,31 +3624,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-625700</v>
+        <v>-639000</v>
       </c>
       <c r="E94" s="3">
-        <v>-824300</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-626000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-362000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-366200</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>-289100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3431,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,31 +3830,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1399300</v>
+        <v>118000</v>
       </c>
       <c r="E100" s="3">
-        <v>-749300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>1399700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-525000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>-732700</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>-386200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3621,31 +3868,34 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>-8000</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
-        <v>3800</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3656,31 +3906,34 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1920400</v>
+        <v>325000</v>
       </c>
       <c r="E102" s="3">
-        <v>110600</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>1920500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>214000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>-89200</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>131400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3689,6 +3942,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1940000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1846900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1700000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1620000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1418000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1062000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1091000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1318000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1379000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1471000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1463600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1389000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1319000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>844000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1225000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1135000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1557000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E10" s="3">
         <v>469000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>383300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>231000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>99000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>218000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-134000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>183000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-178000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,35 +867,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E12" s="3">
         <v>128000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>129500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>114000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
         <v>117000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,37 +1045,38 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1696000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1715000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1760800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1648000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
         <v>1441000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1057,46 +1084,52 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E18" s="3">
         <v>225000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>86100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>52000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-350000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>1379000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,73 +1144,77 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-18000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-18100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-25000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1379000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E21" s="3">
         <v>615000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1271900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-342700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>1547600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,37 +1265,40 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E23" s="3">
         <v>207000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>68100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
         <v>-349000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1263,46 +1306,52 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="3">
         <v>29000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-56000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,37 +1388,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E26" s="3">
         <v>178000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
         <v>-293000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1377,37 +1429,40 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E27" s="3">
         <v>178000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
         <v>-293000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,75 +1634,81 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>18000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>18100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>25000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>1379000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E33" s="3">
         <v>178000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
         <v>-293000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,37 +1757,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E35" s="3">
         <v>178000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
         <v>-293000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,26 +1880,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2474000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3264000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2939200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1019000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>804700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,26 +1919,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
         <v>23200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
         <v>22200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,26 +1960,29 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1247000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1210000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1207700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1059000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1175900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,26 +2001,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1185000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1121300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1078000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1005300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,26 +2083,29 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5508000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5659000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5291300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3156000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3008200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,26 +2124,29 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>293800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>206800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2060,26 +2165,29 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9410000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9173000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8713000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8466000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8290500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,26 +2206,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3">
         <v>376700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3">
         <v>471100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,26 +2329,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1070000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>352800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1025000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>420000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,26 +2411,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16194000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15902000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15027600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12647000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12396500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,26 +2488,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
         <v>551100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
         <v>798800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,26 +2527,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E58" s="3">
         <v>281000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>432200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>466000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>478600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,26 +2568,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3051000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3039000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2179500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1958000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>868800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,26 +2609,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3313000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3320000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3162900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2424000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2146200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,26 +2650,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1908000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1830000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2006400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2075000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2167300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2548,26 +2691,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2315000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2413000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1825200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1646000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1150600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,26 +2855,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7587000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7563000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7052100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6145000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5526100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,26 +3077,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15468800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
         <v>-15518000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,26 +3241,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8607000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8339000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7975500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6502000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6870400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,80 +3323,86 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E81" s="3">
         <v>178000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3">
         <v>-293000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,17 +3429,18 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E83" s="3">
         <v>408000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,12 +3453,12 @@
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>1896600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,35 +3673,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E89" s="3">
         <v>845000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1147900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1109000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>806100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,35 +3733,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-812000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-643000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-612600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-392000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-309800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,35 +3854,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1604000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-639000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-626000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-362000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-289100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,35 +4076,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E100" s="3">
         <v>118000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1399700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-525000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-386200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,35 +4117,38 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3909,35 +4158,38 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-790000</v>
+      </c>
+      <c r="E102" s="3">
         <v>325000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1920500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>214000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>131400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2074000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1993000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1940000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1846900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1700000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1620000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1418000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1062000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1091000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1318000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1379000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1464000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1455000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1471000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1463600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1389000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1319000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>844000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1225000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1135000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1557000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>610000</v>
+      </c>
+      <c r="E10" s="3">
         <v>538000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>469000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>383300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>231000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>99000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>218000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-134000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>183000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-178000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,38 +880,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E12" s="3">
         <v>120000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>128000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>129500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>114000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
         <v>117000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,40 +1071,41 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1717000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1696000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1715000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1760800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1648000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>1441000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1087,49 +1113,55 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E18" s="3">
         <v>297000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>225000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>86100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>52000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-350000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>1379000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,79 +1177,83 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-18000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-25000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1379000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E21" s="3">
         <v>705000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>615000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1271900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-342700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>1547600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,40 +1307,43 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E23" s="3">
         <v>294000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>207000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>68100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
         <v>-349000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1309,49 +1351,55 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>30000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-56000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,40 +1439,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E26" s="3">
         <v>264000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>178000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>42300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>-293000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1432,40 +1483,43 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E27" s="3">
         <v>264000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>178000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>-293000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1473,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,81 +1703,87 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>18000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>25000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>1379000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E33" s="3">
         <v>264000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>178000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>-293000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -1719,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,40 +1835,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E35" s="3">
         <v>264000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>178000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>-293000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -1801,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2541000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2474000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3264000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2939200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1019000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>804700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,29 +2008,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E42" s="3">
         <v>525000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
         <v>23200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
         <v>22200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,29 +2052,32 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1247000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1210000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1207700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1059000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1175900</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,29 +2096,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1262000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1185000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1121300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1078000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1005300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,29 +2184,32 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5619000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5508000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5659000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5291300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3156000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3008200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,29 +2228,32 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>365000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>293800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>206800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2168,29 +2272,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10218000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9410000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9173000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8713000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8466000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8290500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2220,18 +2330,18 @@
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
         <v>376700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
         <v>471100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1276000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1070000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>352800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1025000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>420000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17208000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16194000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15902000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15027600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12647000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12396500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2500,18 +2630,18 @@
       <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
         <v>551100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
         <v>798800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,29 +2660,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E58" s="3">
         <v>262000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>281000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>432200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>466000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>478600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,29 +2704,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3628000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3051000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3039000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2179500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1958000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>868800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3872000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3313000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3320000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3162900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2424000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2146200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,29 +2792,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1972000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1908000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1830000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2006400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2075000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2167300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2694,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2283000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2315000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2413000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1825200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1646000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1150600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8168000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7587000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7563000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7052100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6145000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5526100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="D72" s="3">
+        <v>-14689000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15026000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>-15468800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>-15518000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9040000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8607000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8339000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7975500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6502000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6870400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,86 +3514,92 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E81" s="3">
         <v>264000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>178000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>-293000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -3413,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,20 +3627,21 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E83" s="3">
         <v>411000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>408000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3456,12 +3654,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>1896600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,38 +3889,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>679000</v>
+      </c>
+      <c r="E89" s="3">
         <v>609000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>845000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1147900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1109000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>806100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,38 +3953,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-613000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-812000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-643000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-612600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-392000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-309800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,38 +4083,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-764000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1604000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-639000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-626000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-362000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-289100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,38 +4321,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E100" s="3">
         <v>207000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>118000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1399700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-525000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>-386200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4120,38 +4365,41 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4161,38 +4409,41 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-790000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>325000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1920500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>214000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>131400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2074000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1993000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1940000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1846900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1700000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1620000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1418000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1062000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1091000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1318000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1379000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1464000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1455000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1471000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1463600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1389000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1319000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>844000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1225000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1135000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1557000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E10" s="3">
         <v>610000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>538000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>469000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>383300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>231000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>99000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>218000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-134000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>183000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-178000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,41 +894,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E12" s="3">
         <v>124000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>120000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>128000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>129500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>114000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
         <v>117000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +986,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-309000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,43 +1098,44 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1717000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1696000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1715000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1760800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1648000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
         <v>1441000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1116,52 +1143,58 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E18" s="3">
         <v>357000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>297000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>225000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>86100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>52000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-350000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>1379000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,85 +1211,89 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-18100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-25000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1379000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1085000</v>
+      </c>
+      <c r="E21" s="3">
         <v>750000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>705000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>615000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1271900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-342700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>1547600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,43 +1350,46 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>676000</v>
+      </c>
+      <c r="E23" s="3">
         <v>355000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>294000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>207000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>68100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
         <v>-349000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1354,52 +1397,58 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-56000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,43 +1491,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E26" s="3">
         <v>336000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>264000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>178000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>42300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>-293000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1486,43 +1538,46 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E27" s="3">
         <v>337000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>264000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>178000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>-293000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,87 +1773,93 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>18100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>25000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>1379000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E33" s="3">
         <v>337000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>264000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>178000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>44100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>-293000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,43 +1914,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E35" s="3">
         <v>337000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>264000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>178000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
         <v>-293000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2053,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2352000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2541000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2474000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3264000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2939200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1019000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>804700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,32 +2098,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E42" s="3">
         <v>567000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>525000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
         <v>23200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
         <v>22200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,32 +2145,35 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1487000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1169000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1247000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1210000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1207700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1059000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1175900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,32 +2192,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1339000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1342000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1262000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1185000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1121300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1078000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1005300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,32 +2286,35 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5619000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5508000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5659000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5291300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3156000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3008200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,32 +2333,35 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E47" s="3">
         <v>365000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>293800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>206800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,32 +2380,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10596000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10218000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9410000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9173000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8713000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8466000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8290500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2333,18 +2444,18 @@
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3">
         <v>376700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3">
         <v>471100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,32 +2568,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1006000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1276000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1070000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>352800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1025000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>420000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2662,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17841000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17208000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16194000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15902000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15027600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12647000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12396500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2633,18 +2764,18 @@
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
         <v>551100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3">
         <v>798800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,32 +2794,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E58" s="3">
         <v>244000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>262000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>281000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>432200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>466000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>478600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,32 +2841,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3628000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3051000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3039000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2179500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1958000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>868800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,32 +2888,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3359000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3872000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3313000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3320000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3162900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2424000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2146200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,32 +2935,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2288000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1972000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1908000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1830000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2006400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2075000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2167300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,32 +2982,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2234000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2283000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2315000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2413000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1825200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1646000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1150600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3170,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7928000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8168000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7587000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7563000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7052100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6145000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5526100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3424,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14689000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15026000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
         <v>-15468800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
         <v>-15518000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3612,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9913000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9040000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8607000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8339000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7975500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6502000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6870400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,92 +3706,98 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E81" s="3">
         <v>337000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>264000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>178000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>44100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
         <v>-293000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,23 +3826,24 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>409000</v>
+      </c>
+      <c r="E83" s="3">
         <v>395000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>411000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>408000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3657,12 +3856,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>1896600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,41 +4106,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E89" s="3">
         <v>679000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>609000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>845000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1147900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1109000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>806100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,41 +4174,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-991000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-613000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-812000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-643000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-612600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-392000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-309800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,41 +4313,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1051000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-764000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1604000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-639000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-626000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-362000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-289100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,41 +4567,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E100" s="3">
         <v>157000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>207000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>118000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1399700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-525000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-386200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,41 +4614,44 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4412,41 +4661,44 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-189000</v>
+      </c>
+      <c r="E102" s="3">
         <v>67000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-790000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>325000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1920500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>214000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>131400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1841000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2101000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2074000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1993000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1940000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1846900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1620000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1418000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1062000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1091000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1318000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1379000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1326000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1479000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1464000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1455000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1471000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1463600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1389000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1319000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>844000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1225000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1135000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1557000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E10" s="3">
         <v>622000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>610000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>538000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>469000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>383300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>231000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>99000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>218000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-134000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>183000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-178000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,44 +907,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E12" s="3">
         <v>110000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>124000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>120000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>128000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>129500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>114000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
         <v>117000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,17 +1005,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-309000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1015,8 +1034,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,46 +1124,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1410000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1717000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1696000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1715000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1760800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1648000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <v>1441000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1146,55 +1172,61 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E18" s="3">
         <v>691000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>357000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>297000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>225000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>86100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>52000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-350000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>1379000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,91 +1244,95 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-18000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-18100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-25000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1379000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1085000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>750000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>705000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>615000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1271900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-342700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>1547600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,46 +1392,49 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E23" s="3">
         <v>676000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>355000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>294000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>207000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>68100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
         <v>-349000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1400,55 +1442,61 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>25800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-56000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,46 +1542,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E26" s="3">
         <v>668000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>336000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>264000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>178000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>42300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <v>-293000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1541,46 +1592,49 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>668000</v>
+        <v>254000</v>
       </c>
       <c r="E27" s="3">
+        <v>669000</v>
+      </c>
+      <c r="F27" s="3">
         <v>337000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>264000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>178000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
         <v>-293000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1588,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,93 +1842,99 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E32" s="3">
         <v>15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>18000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>18100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>25000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>1379000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>668000</v>
+        <v>254000</v>
       </c>
       <c r="E33" s="3">
+        <v>669000</v>
+      </c>
+      <c r="F33" s="3">
         <v>337000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>264000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>178000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>44100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>-293000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -1870,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,46 +1992,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>668000</v>
+        <v>254000</v>
       </c>
       <c r="E35" s="3">
+        <v>669000</v>
+      </c>
+      <c r="F35" s="3">
         <v>337000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>264000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>178000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>44100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
         <v>-293000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -1964,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2256000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2352000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2541000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2474000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3264000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2939200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1019000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>804700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,35 +2187,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>653000</v>
+      </c>
+      <c r="E42" s="3">
         <v>622000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>567000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>525000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
         <v>23200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>22200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,35 +2237,38 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1487000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1169000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1247000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1210000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1207700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1059000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1175900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,35 +2287,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1423000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1339000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1342000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1262000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1185000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1121300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1078000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1005300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,35 +2387,38 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5628000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5800000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5619000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5508000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5659000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5291300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3156000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3008200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,35 +2437,38 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>372000</v>
+        <v>323000</v>
       </c>
       <c r="E47" s="3">
+        <v>790000</v>
+      </c>
+      <c r="F47" s="3">
         <v>365000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>293800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>206800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,35 +2487,38 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10829000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10596000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10218000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9410000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9173000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8713000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8466000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8290500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,16 +2537,19 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="E49" s="3">
+        <v>363000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2447,18 +2557,18 @@
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
         <v>376700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
         <v>471100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,35 +2687,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1073000</v>
+        <v>1035000</v>
       </c>
       <c r="E52" s="3">
+        <v>292000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1006000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1276000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1070000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>352800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1025000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>420000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17815000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17841000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17208000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16194000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15902000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15027600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12647000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12396500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,16 +2879,17 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3">
+        <v>532000</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2767,18 +2897,18 @@
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
         <v>551100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>798800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,35 +2927,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>223000</v>
+        <v>205000</v>
       </c>
       <c r="E58" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F58" s="3">
         <v>244000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>262000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>281000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>432200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>466000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>478600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,35 +2977,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3136000</v>
+        <v>2690000</v>
       </c>
       <c r="E59" s="3">
+        <v>2529000</v>
+      </c>
+      <c r="F59" s="3">
         <v>3628000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3051000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3039000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2179500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1958000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>868800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2895000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3359000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3872000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3313000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3320000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3162900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2424000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2146200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,35 +3077,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2288000</v>
+        <v>2310000</v>
       </c>
       <c r="E61" s="3">
+        <v>2558000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1972000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1908000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1830000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2006400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2075000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2167300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2985,35 +3127,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2234000</v>
+        <v>2303000</v>
       </c>
       <c r="E62" s="3">
+        <v>1964000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2283000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2315000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2413000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1825200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1646000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1150600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7555000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7928000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8168000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7587000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7563000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7052100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6145000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5526100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3436,26 +3609,26 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
+        <v>-14021000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14689000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15026000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>-15468800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-15518000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10260000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9913000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9040000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8607000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8339000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7975500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6502000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6870400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,98 +3897,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>668000</v>
+        <v>254000</v>
       </c>
       <c r="E81" s="3">
+        <v>669000</v>
+      </c>
+      <c r="F81" s="3">
         <v>337000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>264000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>178000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>44100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
         <v>-293000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -3808,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,26 +4024,27 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E83" s="3">
         <v>409000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>395000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>411000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>408000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3859,12 +4057,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>1896600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,44 +4322,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E89" s="3">
         <v>491000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>679000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>609000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>845000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1147900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1109000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>806100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,31 +4394,32 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-853000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-991000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-613000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-812000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-643000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-612600</v>
-      </c>
       <c r="I91" s="3">
-        <v>-392000</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-717400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-323500</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4207,12 +4427,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-309800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,44 +4542,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-586000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1051000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-764000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1604000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-639000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-626000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-362000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-289100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,44 +4812,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>360000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>157000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>207000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>118000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1399700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-525000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>-386200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4617,44 +4862,47 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,44 +4912,47 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-189000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>67000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-790000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>325000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1920500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>214000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>131400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,242 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1845000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1841000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2101000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2074000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1993000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1940000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1846900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1700000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1620000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1418000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1062000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1091000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1318000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1379000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1326000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1479000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1464000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1455000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1471000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1463600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1389000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1319000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>844000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1225000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1135000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E10" s="3">
         <v>515000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>622000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>610000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>538000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>469000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>383300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>231000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>99000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>218000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-134000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>183000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,47 +919,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E12" s="3">
         <v>109000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>110000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>124000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>120000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>128000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>129500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>114000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3">
         <v>117000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -958,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,20 +1023,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-309000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,8 +1055,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,49 +1149,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1570000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1551000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1410000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1717000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1696000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1715000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1760800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1648000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
         <v>1441000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1175,58 +1200,64 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E18" s="3">
         <v>290000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>691000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>357000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>297000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>225000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>86100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>52000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-350000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1379000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,97 +1276,101 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-18000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-18100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-25000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1379000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E21" s="3">
         <v>620000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1085000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>750000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>705000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>615000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1271900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-342700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>1547600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,49 +1433,52 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E23" s="3">
         <v>277000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>676000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>355000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>294000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>207000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>68100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3">
         <v>-349000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1445,58 +1486,64 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>23000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>25800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-56000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,49 +1592,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E26" s="3">
         <v>254000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>668000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>336000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>264000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>178000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
         <v>-293000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -1595,49 +1645,52 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E27" s="3">
         <v>254000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>669000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>337000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>264000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>178000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>44100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
         <v>-293000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -1645,8 +1698,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,99 +1910,105 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>13000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>18000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>18100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>25000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1379000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E33" s="3">
         <v>254000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>669000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>337000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>264000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>178000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
         <v>-293000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -1945,8 +2016,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,49 +2069,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E35" s="3">
         <v>254000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>669000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>337000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>264000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>178000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
         <v>-293000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2045,63 +2122,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,38 +2224,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1832000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2256000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2352000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2541000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2474000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3264000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2939200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1019000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>804700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,38 +2275,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>653000</v>
+        <v>1001000</v>
       </c>
       <c r="E42" s="3">
+        <v>720000</v>
+      </c>
+      <c r="F42" s="3">
         <v>622000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>567000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>525000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
         <v>23200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
         <v>22200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,38 +2328,41 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1296000</v>
+        <v>1186000</v>
       </c>
       <c r="E43" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1487000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1169000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1247000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1210000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1207700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1059000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1175900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,38 +2381,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1504000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1423000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1339000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1342000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1262000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1185000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1121300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1078000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1005300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,8 +2434,11 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,38 +2487,41 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5523000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5628000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5800000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5619000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5508000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5659000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5291300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3156000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3008200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,38 +2540,41 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>323000</v>
+        <v>629000</v>
       </c>
       <c r="E47" s="3">
+        <v>462000</v>
+      </c>
+      <c r="F47" s="3">
         <v>790000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>365000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>293800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>206800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,38 +2593,41 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10789000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10829000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10596000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10218000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9410000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9173000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8713000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8466000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8290500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,38 +2646,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>381000</v>
       </c>
       <c r="E49" s="3">
+        <v>369000</v>
+      </c>
+      <c r="F49" s="3">
         <v>363000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3">
         <v>376700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
         <v>471100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2699,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,38 +2805,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1035000</v>
+        <v>493000</v>
       </c>
       <c r="E52" s="3">
+        <v>527000</v>
+      </c>
+      <c r="F52" s="3">
         <v>292000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1006000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1276000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1070000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>352800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1025000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>420000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2911,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,29 +2923,29 @@
         <v>17815000</v>
       </c>
       <c r="E54" s="3">
+        <v>17815000</v>
+      </c>
+      <c r="F54" s="3">
         <v>17841000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17208000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16194000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15902000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15027600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12647000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12396500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,38 +3008,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>2320000</v>
       </c>
       <c r="E57" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="F57" s="3">
         <v>532000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3">
         <v>551100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
         <v>798800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,38 +3059,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>205000</v>
+        <v>282000</v>
       </c>
       <c r="E58" s="3">
+        <v>276000</v>
+      </c>
+      <c r="F58" s="3">
         <v>298000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>244000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>262000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>281000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>432200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>466000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>478600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,38 +3112,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2690000</v>
+        <v>188000</v>
       </c>
       <c r="E59" s="3">
+        <v>219000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2529000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3628000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3051000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3039000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2179500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1958000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>868800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,38 +3165,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2790000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2895000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3359000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3872000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3313000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3320000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3162900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2424000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2146200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,38 +3218,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2310000</v>
+        <v>2501000</v>
       </c>
       <c r="E61" s="3">
+        <v>2622000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2558000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1972000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1908000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1830000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2006400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2075000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2167300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3130,38 +3271,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2303000</v>
+        <v>1950000</v>
       </c>
       <c r="E62" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1964000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2283000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2315000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2413000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1825200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1646000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1150600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,38 +3483,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7286000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7555000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7928000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8168000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7587000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7563000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7052100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6145000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5526100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3769,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-13527000</v>
       </c>
       <c r="E72" s="3">
+        <v>-13767000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14021000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14689000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15026000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
         <v>-15468800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-15518000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,38 +3981,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10529000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10260000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9913000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9040000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8607000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8339000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7975500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6502000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6870400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,104 +4087,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E81" s="3">
         <v>254000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>669000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>337000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>264000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>178000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>44100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3">
         <v>-293000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -4005,8 +4198,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,29 +4221,30 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E83" s="3">
         <v>343000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>409000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>395000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>411000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>408000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4060,12 +4257,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>1896600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4075,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,47 +4537,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E89" s="3">
         <v>479000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>491000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>679000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>609000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>845000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1147900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1109000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>806100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4375,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,47 +4613,48 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-399000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-853000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-991000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-613000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-812000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-643000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-717400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-323500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-309800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4445,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,47 +4770,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-888000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-586000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1051000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-764000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1604000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-639000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-626000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-362000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-289100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,47 +5056,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E100" s="3">
         <v>10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>360000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>157000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>207000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>118000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1399700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-525000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>-386200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4865,47 +5109,50 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4915,47 +5162,50 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-424000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-96000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-189000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>67000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-790000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>325000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1920500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>214000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>131400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4963,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GFS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,242 +665,254 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1852000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1845000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1841000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2101000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2074000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1993000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1940000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1846900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1700000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1620000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1418000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1062000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1091000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1318000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1379000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1323000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1313000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1326000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1479000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1464000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1455000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1471000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1463600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1400000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1389000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1319000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>844000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1225000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1135000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1557000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E10" s="3">
         <v>532000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>515000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>622000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>610000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>538000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>469000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>383300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>231000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>218000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-134000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>183000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-178000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,50 +932,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E12" s="3">
         <v>106000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>109000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>110000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>124000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>120000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>128000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>129500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>114000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
         <v>117000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,23 +1042,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E14" s="3">
         <v>19000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-309000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1077,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1079,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,52 +1175,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1591000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1570000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1551000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1410000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1717000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1696000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1715000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1760800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1648000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
         <v>1441000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1203,61 +1229,67 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E18" s="3">
         <v>275000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>290000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>691000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>357000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>297000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>225000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>86100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-350000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>1379000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,103 +1309,107 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-18000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-18100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1379000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E21" s="3">
         <v>605000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>620000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1085000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>750000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>705000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>615000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1271900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-342700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>1547600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1419,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,52 +1475,55 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E23" s="3">
         <v>265000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>277000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>676000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>355000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>294000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>207000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>68100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
         <v>-349000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1489,61 +1531,67 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>29000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>25800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-56000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,52 +1643,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E26" s="3">
         <v>237000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>254000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>668000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>336000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>264000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>178000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
         <v>-293000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -1648,52 +1699,55 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E27" s="3">
         <v>240000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>254000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>669000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>337000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>264000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>178000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
         <v>-293000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,105 +1979,111 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E32" s="3">
         <v>10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>18000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>18100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>1379000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E33" s="3">
         <v>240000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>254000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>669000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>337000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>264000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>178000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
         <v>-293000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,52 +2147,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E35" s="3">
         <v>240000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>254000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>669000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>337000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>264000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>178000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
         <v>-293000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2125,66 +2203,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2310,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1880000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1832000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2256000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2352000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2541000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2474000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3264000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2939200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1019000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>804700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,41 +2364,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1001000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>720000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>622000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>567000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>525000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>23200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
         <v>22200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,41 +2420,44 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1404000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1186000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1229000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1487000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1169000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1247000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1210000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1207700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1059000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1175900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,41 +2476,44 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1509000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1504000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1423000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1339000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1342000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1262000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1185000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1121300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1078000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1005300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2532,11 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2490,41 +2588,44 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5807000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5523000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5628000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5800000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5619000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5508000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5659000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5291300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3156000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3008200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,41 +2644,44 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E47" s="3">
         <v>629000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>462000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>790000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>365000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>293800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>206800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,41 +2700,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10594000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10789000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10829000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10596000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10218000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9410000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9173000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8713000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8466000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8290500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,41 +2756,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>381000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>369000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>363000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
         <v>376700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
         <v>471100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2812,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,41 +2924,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>977000</v>
+      </c>
+      <c r="E52" s="3">
         <v>493000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>527000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>292000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1006000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1276000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1070000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>352800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1025000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>420000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3036,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17815000</v>
+        <v>17844000</v>
       </c>
       <c r="E54" s="3">
         <v>17815000</v>
       </c>
       <c r="F54" s="3">
+        <v>17815000</v>
+      </c>
+      <c r="G54" s="3">
         <v>17841000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17208000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16194000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15902000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15027600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12647000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12396500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3138,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>2320000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>532000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>551100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
         <v>798800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,41 +3192,44 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E58" s="3">
         <v>282000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>276000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>298000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>244000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>262000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>281000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>432200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>466000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>478600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,41 +3248,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2549000</v>
+      </c>
+      <c r="E59" s="3">
         <v>188000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>219000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2529000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3628000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3051000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3039000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2179500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1958000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>868800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,41 +3304,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2748000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2790000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2895000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3359000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3872000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3313000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3320000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3162900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2424000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2146200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,41 +3360,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2181000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2501000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2622000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2558000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1972000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1908000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1830000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2006400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2075000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2167300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3274,41 +3416,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2084000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1950000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1991000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1964000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2283000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2315000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2413000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1825200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1646000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1150600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3640,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7057000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7286000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7555000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7928000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8168000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7587000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7563000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7052100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6145000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5526100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3942,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13278000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13527000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13767000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14021000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14689000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15026000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-15468800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>-15518000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4166,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10787000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10529000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10260000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9913000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9040000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8607000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8339000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7975500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6502000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6870400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,110 +4278,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E81" s="3">
         <v>240000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>254000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>669000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>337000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>264000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>178000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3">
         <v>-293000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,32 +4419,33 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E83" s="3">
         <v>340000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>343000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>409000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>395000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>411000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>408000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4260,12 +4458,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>1896600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,50 +4753,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E89" s="3">
         <v>546000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>479000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>491000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>679000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>609000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>845000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1147900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1109000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>806100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,50 +4833,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-399000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-853000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-991000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-613000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-812000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-643000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-717400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-323500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-309800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,50 +4999,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-313000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-888000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-586000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1051000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-764000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1604000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-639000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-626000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-362000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-289100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,50 +5301,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-81000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>360000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>157000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>207000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>118000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1399700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-525000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>-386200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5121,41 +5369,41 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5165,50 +5413,53 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-424000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-96000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-189000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>67000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-790000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>325000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1920500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>214000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>131400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
